--- a/prog/data_processing/result/classify_abby/2.xlsx
+++ b/prog/data_processing/result/classify_abby/2.xlsx
@@ -25,7 +25,7 @@
     <t>Empty</t>
   </si>
   <si>
-    <t>Empty part</t>
+    <t>Empty part%</t>
   </si>
   <si>
     <t>AUC</t>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,405 +599,470 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.5723902897379314</v>
+      </c>
+      <c r="C3">
+        <v>0.1206575171242146</v>
+      </c>
+      <c r="D3">
+        <v>2.638115938922102E-17</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.1447805794758628</v>
+      </c>
+      <c r="G3">
+        <v>229217</v>
+      </c>
+      <c r="H3">
+        <v>189124</v>
+      </c>
+      <c r="I3">
+        <v>82.50871444962634</v>
+      </c>
+      <c r="J3">
+        <v>96.97174793621494</v>
+      </c>
+      <c r="K3">
+        <v>0.5723902897379314</v>
+      </c>
+      <c r="L3">
+        <v>0.1206575171242146</v>
+      </c>
+      <c r="M3">
+        <v>2.638115938922102E-17</v>
+      </c>
+      <c r="N3">
+        <v>-1</v>
+      </c>
+      <c r="O3">
+        <v>0.1447805794758628</v>
+      </c>
+      <c r="P3">
+        <v>7280</v>
+      </c>
+      <c r="Q3">
+        <v>5906</v>
+      </c>
+      <c r="R3">
+        <v>81.12637362637362</v>
+      </c>
+      <c r="S3">
+        <v>3.028252063785059</v>
+      </c>
+      <c r="T3">
+        <v>195030</v>
+      </c>
+      <c r="U3">
+        <v>82.46616236146758</v>
+      </c>
+    </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.5723902897379314</v>
+        <v>0.6125199517899607</v>
       </c>
       <c r="C4">
-        <v>0.1206575171242146</v>
+        <v>0.239128310368416</v>
       </c>
       <c r="D4">
-        <v>2.638115938922102E-17</v>
+        <v>0.0002330687792138666</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.1447805794758628</v>
+        <v>0.2250399035799213</v>
       </c>
       <c r="G4">
         <v>229217</v>
       </c>
       <c r="H4">
-        <v>189124</v>
+        <v>227701</v>
       </c>
       <c r="I4">
-        <v>82.50871444962634</v>
+        <v>99.3386179908122</v>
       </c>
       <c r="J4">
-        <v>96.97174793621494</v>
+        <v>96.93529161345253</v>
       </c>
       <c r="K4">
-        <v>0.5723902897379314</v>
+        <v>0.6125199517899607</v>
       </c>
       <c r="L4">
-        <v>0.1206575171242146</v>
+        <v>0.239128310368416</v>
       </c>
       <c r="M4">
-        <v>2.638115938922102E-17</v>
+        <v>0.0002330687792138666</v>
       </c>
       <c r="N4">
         <v>-1</v>
       </c>
       <c r="O4">
-        <v>0.1447805794758628</v>
+        <v>0.2250399035799213</v>
       </c>
       <c r="P4">
         <v>7280</v>
       </c>
       <c r="Q4">
-        <v>5906</v>
+        <v>7199</v>
       </c>
       <c r="R4">
-        <v>81.12637362637362</v>
+        <v>98.88736263736264</v>
       </c>
       <c r="S4">
-        <v>3.028252063785059</v>
+        <v>3.064708386547467</v>
       </c>
       <c r="T4">
-        <v>195030</v>
+        <v>234900</v>
       </c>
       <c r="U4">
-        <v>0.8246616236146759</v>
+        <v>99.32472716355809</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0.6125199517899607</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="C5">
-        <v>0.239128310368416</v>
+        <v>0.5301932367149758</v>
       </c>
       <c r="D5">
-        <v>0.0002330687792138666</v>
+        <v>0.01264756999253388</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2250399035799213</v>
+        <v>0.536231884057971</v>
       </c>
       <c r="G5">
         <v>229217</v>
       </c>
       <c r="H5">
-        <v>227701</v>
+        <v>229125</v>
       </c>
       <c r="I5">
-        <v>99.3386179908122</v>
+        <v>99.95986336092</v>
       </c>
       <c r="J5">
-        <v>96.93529161345253</v>
+        <v>96.92422883635933</v>
       </c>
       <c r="K5">
-        <v>0.6125199517899607</v>
+        <v>0.7681159420289855</v>
       </c>
       <c r="L5">
-        <v>0.239128310368416</v>
+        <v>0.5301932367149758</v>
       </c>
       <c r="M5">
-        <v>0.0002330687792138666</v>
+        <v>0.01264756999253388</v>
       </c>
       <c r="N5">
         <v>-1</v>
       </c>
       <c r="O5">
-        <v>0.2250399035799213</v>
+        <v>0.536231884057971</v>
       </c>
       <c r="P5">
         <v>7280</v>
       </c>
       <c r="Q5">
-        <v>7199</v>
+        <v>7271</v>
       </c>
       <c r="R5">
-        <v>98.88736263736264</v>
+        <v>99.87637362637362</v>
       </c>
       <c r="S5">
-        <v>3.064708386547467</v>
+        <v>3.075771163640671</v>
       </c>
       <c r="T5">
-        <v>234900</v>
+        <v>236396</v>
       </c>
       <c r="U5">
-        <v>0.993247271635581</v>
+        <v>99.95729332718808</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.7681159420289855</v>
+        <v>0.6688545226973605</v>
       </c>
       <c r="C6">
-        <v>0.5301932367149758</v>
+        <v>0.3007699126174741</v>
       </c>
       <c r="D6">
-        <v>0.01264756999253388</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.536231884057971</v>
+        <v>0.3377090453947209</v>
       </c>
       <c r="G6">
         <v>229217</v>
       </c>
       <c r="H6">
-        <v>229125</v>
+        <v>106917</v>
       </c>
       <c r="I6">
-        <v>99.95986336092</v>
+        <v>46.64444609256731</v>
       </c>
       <c r="J6">
-        <v>96.92422883635933</v>
+        <v>98.88368909770264</v>
       </c>
       <c r="K6">
-        <v>0.7681159420289855</v>
+        <v>0.6688545226973605</v>
       </c>
       <c r="L6">
-        <v>0.5301932367149758</v>
+        <v>0.3007699126174741</v>
       </c>
       <c r="M6">
-        <v>0.01264756999253388</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.536231884057971</v>
+        <v>0.3377090453947209</v>
       </c>
       <c r="P6">
         <v>7280</v>
       </c>
       <c r="Q6">
-        <v>7271</v>
+        <v>1207</v>
       </c>
       <c r="R6">
-        <v>99.87637362637362</v>
+        <v>16.57967032967033</v>
       </c>
       <c r="S6">
-        <v>3.075771163640671</v>
+        <v>1.116310902297362</v>
       </c>
       <c r="T6">
-        <v>236396</v>
+        <v>108124</v>
       </c>
       <c r="U6">
-        <v>0.9995729332718808</v>
+        <v>45.7189731793638</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.6688545226973605</v>
+        <v>0.5524087195652165</v>
       </c>
       <c r="C7">
-        <v>0.3007699126174741</v>
+        <v>0.1056752766692007</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.003391140337974593</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3377090453947209</v>
+        <v>0.1048174391304331</v>
       </c>
       <c r="G7">
         <v>229217</v>
       </c>
       <c r="H7">
-        <v>106917</v>
+        <v>220416</v>
       </c>
       <c r="I7">
-        <v>46.64444609256731</v>
+        <v>96.16040695061885</v>
       </c>
       <c r="J7">
-        <v>98.88368909770264</v>
+        <v>96.92662870209539</v>
       </c>
       <c r="K7">
-        <v>0.6688545226973605</v>
+        <v>0.5524087195652165</v>
       </c>
       <c r="L7">
-        <v>0.3007699126174741</v>
+        <v>0.1056752766692007</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.003391140337974593</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O7">
-        <v>0.3377090453947209</v>
+        <v>0.1048174391304331</v>
       </c>
       <c r="P7">
         <v>7280</v>
       </c>
       <c r="Q7">
-        <v>1207</v>
+        <v>6989</v>
       </c>
       <c r="R7">
-        <v>16.57967032967033</v>
+        <v>96.00274725274726</v>
       </c>
       <c r="S7">
-        <v>1.116310902297362</v>
+        <v>3.073371297904619</v>
       </c>
       <c r="T7">
-        <v>108124</v>
+        <v>227405</v>
       </c>
       <c r="U7">
-        <v>0.457189731793638</v>
+        <v>96.1555537702381</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.5524087195652165</v>
+        <v>0.5262230420647991</v>
       </c>
       <c r="C8">
-        <v>0.1056752766692007</v>
+        <v>0.05244608412959806</v>
       </c>
       <c r="D8">
-        <v>0.003391140337974593</v>
+        <v>2.620098962347957E-17</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.1048174391304331</v>
+        <v>0.05244608412959817</v>
       </c>
       <c r="G8">
         <v>229217</v>
       </c>
       <c r="H8">
-        <v>220416</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>96.16040695061885</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>96.92662870209539</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5524087195652165</v>
+        <v>0.526223042064799</v>
       </c>
       <c r="L8">
-        <v>0.1056752766692007</v>
+        <v>0.052446084129598</v>
       </c>
       <c r="M8">
-        <v>0.003391140337974593</v>
+        <v>2.620098962348173E-17</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.1048174391304331</v>
+        <v>0.05244608412959795</v>
       </c>
       <c r="P8">
         <v>7280</v>
       </c>
       <c r="Q8">
-        <v>6989</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>96.00274725274726</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>3.073371297904619</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>227405</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.961555537702381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.5262230420647991</v>
+        <v>0.6656659859530393</v>
       </c>
       <c r="C9">
-        <v>0.05244608412959806</v>
+        <v>0.2543881261180262</v>
       </c>
       <c r="D9">
-        <v>2.620098962347957E-17</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.05244608412959817</v>
+        <v>0.3313319719060785</v>
       </c>
       <c r="G9">
         <v>229217</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>69661</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>30.39085233643229</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>99.16156583629893</v>
       </c>
       <c r="K9">
-        <v>0.526223042064799</v>
+        <v>0.6656659859530393</v>
       </c>
       <c r="L9">
-        <v>0.052446084129598</v>
+        <v>0.2543881261180262</v>
       </c>
       <c r="M9">
-        <v>2.620098962348173E-17</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>0.05244608412959795</v>
+        <v>0.3313319719060785</v>
       </c>
       <c r="P9">
         <v>7280</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>8.090659340659341</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.8384341637010676</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>70250</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>29.70439371323949</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.6656659859530393</v>
+        <v>0.6490411040150206</v>
       </c>
       <c r="C10">
-        <v>0.2543881261180262</v>
+        <v>0.2835535680786578</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1006,25 +1071,25 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3313319719060785</v>
+        <v>0.2980822080300412</v>
       </c>
       <c r="G10">
         <v>229217</v>
       </c>
       <c r="H10">
-        <v>69661</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>30.39085233643229</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>99.16156583629893</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6656659859530393</v>
+        <v>0.6490411040150206</v>
       </c>
       <c r="L10">
-        <v>0.2543881261180262</v>
+        <v>0.2835535680786579</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1033,175 +1098,175 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>0.3313319719060785</v>
+        <v>0.2980822080300412</v>
       </c>
       <c r="P10">
         <v>7280</v>
       </c>
       <c r="Q10">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>8.090659340659341</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.8384341637010676</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>70250</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.2970439371323949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.6490411040150206</v>
+        <v>0.6529401028978394</v>
       </c>
       <c r="C11">
-        <v>0.2835535680786578</v>
+        <v>0.2159597673820004</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2.350164698350957E-289</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.2980822080300412</v>
+        <v>0.3058802057956789</v>
       </c>
       <c r="G11">
         <v>229217</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>62519</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>27.27502759393937</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>99.01176694170375</v>
       </c>
       <c r="K11">
-        <v>0.6490411040150206</v>
+        <v>0.6529401028978394</v>
       </c>
       <c r="L11">
-        <v>0.2835535680786579</v>
+        <v>0.2159597673820005</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.350164698349738E-289</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0.2980822080300412</v>
+        <v>0.3058802057956789</v>
       </c>
       <c r="P11">
         <v>7280</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.9882330582962482</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>63143</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>26.6992815976524</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.6529401028978394</v>
+        <v>0.5126978300757951</v>
       </c>
       <c r="C12">
-        <v>0.2159597673820004</v>
+        <v>0.02539566015159012</v>
       </c>
       <c r="D12">
-        <v>2.350164698350957E-289</v>
+        <v>0.0002190541520825763</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3058802057956789</v>
+        <v>0.02539566015159012</v>
       </c>
       <c r="G12">
         <v>229217</v>
       </c>
       <c r="H12">
-        <v>62519</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>27.27502759393937</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>99.01176694170375</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6529401028978394</v>
+        <v>0.5126978300757951</v>
       </c>
       <c r="L12">
-        <v>0.2159597673820005</v>
+        <v>0.02539566015159012</v>
       </c>
       <c r="M12">
-        <v>2.350164698349738E-289</v>
+        <v>0.0002190541520825763</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>0.3058802057956789</v>
+        <v>0.02539566015159012</v>
       </c>
       <c r="P12">
         <v>7280</v>
       </c>
       <c r="Q12">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>0.9882330582962482</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>63143</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>0.266992815976524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.5126978300757951</v>
+        <v>0.510669755235058</v>
       </c>
       <c r="C13">
-        <v>0.02539566015159012</v>
+        <v>0.02133951047011595</v>
       </c>
       <c r="D13">
-        <v>0.0002190541520825763</v>
+        <v>0.003189864373854432</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.02539566015159012</v>
+        <v>0.02133951047011595</v>
       </c>
       <c r="G13">
         <v>229217</v>
@@ -1216,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5126978300757951</v>
+        <v>0.510669755235058</v>
       </c>
       <c r="L13">
-        <v>0.02539566015159012</v>
+        <v>0.02133951047011596</v>
       </c>
       <c r="M13">
-        <v>0.0002190541520825763</v>
+        <v>0.003189864373854419</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
-        <v>0.02539566015159012</v>
+        <v>0.02133951047011595</v>
       </c>
       <c r="P13">
         <v>7280</v>
@@ -1251,22 +1316,22 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.510669755235058</v>
+        <v>0.515725059192194</v>
       </c>
       <c r="C14">
-        <v>0.02133951047011595</v>
+        <v>0.03145011838438805</v>
       </c>
       <c r="D14">
-        <v>0.003189864373854432</v>
+        <v>1.693394805386712E-06</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.02133951047011595</v>
+        <v>0.03145011838438805</v>
       </c>
       <c r="G14">
         <v>229217</v>
@@ -1281,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.510669755235058</v>
+        <v>0.5157250591921941</v>
       </c>
       <c r="L14">
-        <v>0.02133951047011596</v>
+        <v>0.0314501183843881</v>
       </c>
       <c r="M14">
-        <v>0.003189864373854419</v>
+        <v>1.693394805386639E-06</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02133951047011595</v>
+        <v>0.03145011838438827</v>
       </c>
       <c r="P14">
         <v>7280</v>
@@ -1316,1367 +1381,1302 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.515725059192194</v>
+        <v>0.6207845760102464</v>
       </c>
       <c r="C15">
-        <v>0.03145011838438805</v>
+        <v>0.2222710543207605</v>
       </c>
       <c r="D15">
-        <v>1.693394805386712E-06</v>
+        <v>1.102742962873517E-306</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.03145011838438805</v>
+        <v>0.2415691520204928</v>
       </c>
       <c r="G15">
         <v>229217</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>79424</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>34.65013502488908</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>98.87338321154253</v>
       </c>
       <c r="K15">
-        <v>0.5157250591921941</v>
+        <v>0.6207845760102464</v>
       </c>
       <c r="L15">
-        <v>0.0314501183843881</v>
+        <v>0.2222710543207604</v>
       </c>
       <c r="M15">
-        <v>1.693394805386639E-06</v>
+        <v>1.10274296287391E-306</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
-        <v>0.03145011838438827</v>
+        <v>0.2415691520204928</v>
       </c>
       <c r="P15">
         <v>7280</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>905</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>12.43131868131868</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1.126616788457469</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>80329</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>33.9661813891931</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.6207845760102464</v>
+        <v>0.5925592992834133</v>
       </c>
       <c r="C16">
-        <v>0.2222710543207605</v>
+        <v>0.184282273762657</v>
       </c>
       <c r="D16">
-        <v>1.102742962873517E-306</v>
+        <v>3.321923923507576E-210</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.2415691520204928</v>
+        <v>0.1851185985668267</v>
       </c>
       <c r="G16">
         <v>229217</v>
       </c>
       <c r="H16">
-        <v>79424</v>
+        <v>68120</v>
       </c>
       <c r="I16">
-        <v>34.65013502488908</v>
+        <v>29.71856363184231</v>
       </c>
       <c r="J16">
-        <v>98.87338321154253</v>
+        <v>98.80769342345739</v>
       </c>
       <c r="K16">
-        <v>0.6207845760102464</v>
+        <v>0.5925592992834133</v>
       </c>
       <c r="L16">
-        <v>0.2222710543207604</v>
+        <v>0.1842822737626569</v>
       </c>
       <c r="M16">
-        <v>1.10274296287391E-306</v>
+        <v>3.32192392350855E-210</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>0.2415691520204928</v>
+        <v>0.1851185985668267</v>
       </c>
       <c r="P16">
         <v>7280</v>
       </c>
       <c r="Q16">
-        <v>905</v>
+        <v>822</v>
       </c>
       <c r="R16">
-        <v>12.43131868131868</v>
+        <v>11.29120879120879</v>
       </c>
       <c r="S16">
-        <v>1.126616788457469</v>
+        <v>1.192306576542601</v>
       </c>
       <c r="T16">
-        <v>80329</v>
+        <v>68942</v>
       </c>
       <c r="U16">
-        <v>0.339661813891931</v>
+        <v>29.15132115840793</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>0.5925592992834133</v>
+        <v>0.5597950996888739</v>
       </c>
       <c r="C17">
-        <v>0.184282273762657</v>
+        <v>0.09463327063701382</v>
       </c>
       <c r="D17">
-        <v>3.321923923507576E-210</v>
+        <v>1.903985903817355E-55</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F17">
-        <v>0.1851185985668267</v>
+        <v>0.1195901993777477</v>
       </c>
       <c r="G17">
         <v>229217</v>
       </c>
       <c r="H17">
-        <v>68120</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>29.71856363184231</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>98.80769342345739</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5925592992834133</v>
+        <v>0.5597950996888739</v>
       </c>
       <c r="L17">
-        <v>0.1842822737626569</v>
+        <v>0.09463327063701382</v>
       </c>
       <c r="M17">
-        <v>3.32192392350855E-210</v>
+        <v>1.903985903817355E-55</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>0.1851185985668267</v>
+        <v>0.1195901993777477</v>
       </c>
       <c r="P17">
         <v>7280</v>
       </c>
       <c r="Q17">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>11.29120879120879</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>1.192306576542601</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>68942</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.2915132115840793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18">
-        <v>0.5597950996888739</v>
+        <v>0.6056165430262901</v>
       </c>
       <c r="C18">
-        <v>0.09463327063701382</v>
+        <v>0.1873375663456678</v>
       </c>
       <c r="D18">
-        <v>1.903985903817355E-55</v>
+        <v>2.832877313980089E-217</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.1195901993777477</v>
+        <v>0.2112330860525802</v>
       </c>
       <c r="G18">
         <v>229217</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>131857</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>57.52496542577558</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>97.90319347198194</v>
       </c>
       <c r="K18">
-        <v>0.5597950996888739</v>
+        <v>0.6056165430262901</v>
       </c>
       <c r="L18">
-        <v>0.09463327063701382</v>
+        <v>0.1873375663456679</v>
       </c>
       <c r="M18">
-        <v>1.903985903817355E-55</v>
+        <v>2.832877313979245E-217</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18">
-        <v>0.1195901993777477</v>
+        <v>0.2112330860525802</v>
       </c>
       <c r="P18">
         <v>7280</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2824</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>38.79120879120879</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2.096806528018058</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>134681</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>56.94829109883</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19">
-        <v>0.6056165430262901</v>
+        <v>0.5589259965083949</v>
       </c>
       <c r="C19">
-        <v>0.1873375663456678</v>
+        <v>0.0719918897960915</v>
       </c>
       <c r="D19">
-        <v>2.832877313980089E-217</v>
+        <v>1.184732334380948E-17</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F19">
-        <v>0.2112330860525802</v>
+        <v>0.1178519930167898</v>
       </c>
       <c r="G19">
         <v>229217</v>
       </c>
       <c r="H19">
-        <v>131857</v>
+        <v>142352</v>
       </c>
       <c r="I19">
-        <v>57.52496542577558</v>
+        <v>62.103596155608</v>
       </c>
       <c r="J19">
-        <v>97.90319347198194</v>
+        <v>97.74304959523205</v>
       </c>
       <c r="K19">
-        <v>0.6056165430262901</v>
+        <v>0.5589259965083949</v>
       </c>
       <c r="L19">
-        <v>0.1873375663456679</v>
+        <v>0.0719918897960915</v>
       </c>
       <c r="M19">
-        <v>2.832877313979245E-217</v>
+        <v>1.184732334380948E-17</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>0.2112330860525802</v>
+        <v>0.1178519930167898</v>
       </c>
       <c r="P19">
         <v>7280</v>
       </c>
       <c r="Q19">
-        <v>2824</v>
+        <v>3287</v>
       </c>
       <c r="R19">
-        <v>38.79120879120879</v>
+        <v>45.1510989010989</v>
       </c>
       <c r="S19">
-        <v>2.096806528018058</v>
+        <v>2.256950404767954</v>
       </c>
       <c r="T19">
-        <v>134681</v>
+        <v>145639</v>
       </c>
       <c r="U19">
-        <v>0.5694829109883001</v>
+        <v>61.5817536797507</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.5589259965083949</v>
+        <v>0.5698709504108156</v>
       </c>
       <c r="C20">
-        <v>0.0719918897960915</v>
+        <v>0.1091872493096122</v>
       </c>
       <c r="D20">
-        <v>1.184732334380948E-17</v>
+        <v>2.833412795158788E-46</v>
       </c>
       <c r="E20">
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>0.1178519930167898</v>
+        <v>0.1397419008216312</v>
       </c>
       <c r="G20">
         <v>229217</v>
       </c>
       <c r="H20">
-        <v>142352</v>
+        <v>129701</v>
       </c>
       <c r="I20">
-        <v>62.103596155608</v>
+        <v>56.58437201429214</v>
       </c>
       <c r="J20">
-        <v>97.74304959523205</v>
+        <v>97.98886395745035</v>
       </c>
       <c r="K20">
-        <v>0.5589259965083949</v>
+        <v>0.5698709504108155</v>
       </c>
       <c r="L20">
-        <v>0.0719918897960915</v>
+        <v>0.1091872493096122</v>
       </c>
       <c r="M20">
-        <v>1.184732334380948E-17</v>
+        <v>2.833412795158788E-46</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
-        <v>0.1178519930167898</v>
+        <v>0.139741900821631</v>
       </c>
       <c r="P20">
         <v>7280</v>
       </c>
       <c r="Q20">
-        <v>3287</v>
+        <v>2662</v>
       </c>
       <c r="R20">
-        <v>45.1510989010989</v>
+        <v>36.56593406593407</v>
       </c>
       <c r="S20">
-        <v>2.256950404767954</v>
+        <v>2.011136042549655</v>
       </c>
       <c r="T20">
-        <v>145639</v>
+        <v>132363</v>
       </c>
       <c r="U20">
-        <v>0.6158175367975069</v>
+        <v>55.96815181587927</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.5698709504108156</v>
+        <v>0.6502431653144738</v>
       </c>
       <c r="C21">
-        <v>0.1091872493096122</v>
+        <v>0.2418626216610067</v>
       </c>
       <c r="D21">
-        <v>2.833412795158788E-46</v>
+        <v>4.453587059926572E-133</v>
       </c>
       <c r="E21">
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>0.1397419008216312</v>
+        <v>0.3004863306289476</v>
       </c>
       <c r="G21">
         <v>229217</v>
       </c>
       <c r="H21">
-        <v>129701</v>
+        <v>164115</v>
       </c>
       <c r="I21">
-        <v>56.58437201429214</v>
+        <v>71.59809263710807</v>
       </c>
       <c r="J21">
-        <v>97.98886395745035</v>
+        <v>97.2740851381628</v>
       </c>
       <c r="K21">
-        <v>0.5698709504108155</v>
+        <v>0.6502431653144738</v>
       </c>
       <c r="L21">
-        <v>0.1091872493096122</v>
+        <v>0.2418626216610067</v>
       </c>
       <c r="M21">
-        <v>2.833412795158788E-46</v>
+        <v>4.453587059926572E-133</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0.139741900821631</v>
+        <v>0.3004863306289476</v>
       </c>
       <c r="P21">
         <v>7280</v>
       </c>
       <c r="Q21">
-        <v>2662</v>
+        <v>4599</v>
       </c>
       <c r="R21">
-        <v>36.56593406593407</v>
+        <v>63.17307692307692</v>
       </c>
       <c r="S21">
-        <v>2.011136042549655</v>
+        <v>2.725914861837192</v>
       </c>
       <c r="T21">
-        <v>132363</v>
+        <v>168714</v>
       </c>
       <c r="U21">
-        <v>0.5596815181587927</v>
+        <v>71.33874848306743</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.6502431653144738</v>
+        <v>0.6517795443085902</v>
       </c>
       <c r="C22">
-        <v>0.2418626216610067</v>
+        <v>0.2569730431620963</v>
       </c>
       <c r="D22">
-        <v>4.453587059926572E-133</v>
+        <v>1.170043109876067E-139</v>
       </c>
       <c r="E22">
         <v>-1</v>
       </c>
       <c r="F22">
-        <v>0.3004863306289476</v>
+        <v>0.3035590886171804</v>
       </c>
       <c r="G22">
         <v>229217</v>
       </c>
       <c r="H22">
-        <v>164115</v>
+        <v>168718</v>
       </c>
       <c r="I22">
-        <v>71.59809263710807</v>
+        <v>73.60623339455626</v>
       </c>
       <c r="J22">
-        <v>97.2740851381628</v>
+        <v>97.23819952740476</v>
       </c>
       <c r="K22">
-        <v>0.6502431653144738</v>
+        <v>0.6517795443085903</v>
       </c>
       <c r="L22">
-        <v>0.2418626216610067</v>
+        <v>0.2569730431620963</v>
       </c>
       <c r="M22">
-        <v>4.453587059926572E-133</v>
+        <v>1.170043109876067E-139</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22">
-        <v>0.3004863306289476</v>
+        <v>0.3035590886171806</v>
       </c>
       <c r="P22">
         <v>7280</v>
       </c>
       <c r="Q22">
-        <v>4599</v>
+        <v>4792</v>
       </c>
       <c r="R22">
-        <v>63.17307692307692</v>
+        <v>65.82417582417582</v>
       </c>
       <c r="S22">
-        <v>2.725914861837192</v>
+        <v>2.761800472595239</v>
       </c>
       <c r="T22">
-        <v>168714</v>
+        <v>173510</v>
       </c>
       <c r="U22">
-        <v>0.7133874848306744</v>
+        <v>73.3666811841165</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.6517795443085902</v>
+        <v>0.5387034839502006</v>
       </c>
       <c r="C23">
-        <v>0.2569730431620963</v>
+        <v>0.08283506653273798</v>
       </c>
       <c r="D23">
-        <v>1.170043109876067E-139</v>
+        <v>1.193706784914177E-25</v>
       </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.07740696790040125</v>
+      </c>
+      <c r="G23">
+        <v>229217</v>
+      </c>
+      <c r="H23">
+        <v>132664</v>
+      </c>
+      <c r="I23">
+        <v>57.87703355335773</v>
+      </c>
+      <c r="J23">
+        <v>97.88606128577648</v>
+      </c>
+      <c r="K23">
+        <v>0.5387034839502006</v>
+      </c>
+      <c r="L23">
+        <v>0.08283506653273798</v>
+      </c>
+      <c r="M23">
+        <v>1.193706784914177E-25</v>
+      </c>
+      <c r="N23">
         <v>-1</v>
       </c>
-      <c r="F23">
-        <v>0.3035590886171804</v>
-      </c>
-      <c r="G23">
-        <v>229217</v>
-      </c>
-      <c r="H23">
-        <v>168718</v>
-      </c>
-      <c r="I23">
-        <v>73.60623339455626</v>
-      </c>
-      <c r="J23">
-        <v>97.23819952740476</v>
-      </c>
-      <c r="K23">
-        <v>0.6517795443085903</v>
-      </c>
-      <c r="L23">
-        <v>0.2569730431620963</v>
-      </c>
-      <c r="M23">
-        <v>1.170043109876067E-139</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
       <c r="O23">
-        <v>0.3035590886171806</v>
+        <v>0.07740696790040125</v>
       </c>
       <c r="P23">
         <v>7280</v>
       </c>
       <c r="Q23">
-        <v>4792</v>
+        <v>2865</v>
       </c>
       <c r="R23">
-        <v>65.82417582417582</v>
+        <v>39.35439560439561</v>
       </c>
       <c r="S23">
-        <v>2.761800472595239</v>
+        <v>2.113938714223524</v>
       </c>
       <c r="T23">
-        <v>173510</v>
+        <v>135529</v>
       </c>
       <c r="U23">
-        <v>0.733666811841165</v>
+        <v>57.30685801511224</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.5387034839502006</v>
+        <v>0.6003863244398141</v>
       </c>
       <c r="C24">
-        <v>0.08283506653273798</v>
+        <v>0.2007499228021702</v>
       </c>
       <c r="D24">
-        <v>1.193706784914177E-25</v>
+        <v>9.926142085890125E-250</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.07740696790040125</v>
+        <v>0.2007726488796282</v>
       </c>
       <c r="G24">
         <v>229217</v>
       </c>
       <c r="H24">
-        <v>132664</v>
+        <v>129012</v>
       </c>
       <c r="I24">
-        <v>57.87703355335773</v>
+        <v>56.28378348900823</v>
       </c>
       <c r="J24">
-        <v>97.88606128577648</v>
+        <v>97.99769081186193</v>
       </c>
       <c r="K24">
-        <v>0.5387034839502006</v>
+        <v>0.6003863244398141</v>
       </c>
       <c r="L24">
-        <v>0.08283506653273798</v>
+        <v>0.2007499228021702</v>
       </c>
       <c r="M24">
-        <v>1.193706784914177E-25</v>
+        <v>9.926142085893305E-250</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.07740696790040125</v>
+        <v>0.2007726488796282</v>
       </c>
       <c r="P24">
         <v>7280</v>
       </c>
       <c r="Q24">
-        <v>2865</v>
+        <v>2636</v>
       </c>
       <c r="R24">
-        <v>39.35439560439561</v>
+        <v>36.20879120879121</v>
       </c>
       <c r="S24">
-        <v>2.113938714223524</v>
+        <v>2.002309188138065</v>
       </c>
       <c r="T24">
-        <v>135529</v>
+        <v>131648</v>
       </c>
       <c r="U24">
-        <v>0.5730685801511224</v>
+        <v>55.66582239943847</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.6003863244398141</v>
+        <v>0.5374636632834116</v>
       </c>
       <c r="C25">
-        <v>0.2007499228021702</v>
+        <v>0.07410062296988479</v>
       </c>
       <c r="D25">
-        <v>9.926142085890125E-250</v>
+        <v>7.7378610635856E-20</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F25">
-        <v>0.2007726488796282</v>
+        <v>0.0749273265668231</v>
       </c>
       <c r="G25">
         <v>229217</v>
       </c>
       <c r="H25">
-        <v>129012</v>
+        <v>133204</v>
       </c>
       <c r="I25">
-        <v>56.28378348900823</v>
+        <v>58.11261817404468</v>
       </c>
       <c r="J25">
-        <v>97.99769081186193</v>
+        <v>97.76870908076685</v>
       </c>
       <c r="K25">
-        <v>0.6003863244398141</v>
+        <v>0.5374636632834114</v>
       </c>
       <c r="L25">
-        <v>0.2007499228021702</v>
+        <v>0.07410062296988479</v>
       </c>
       <c r="M25">
-        <v>9.926142085893305E-250</v>
+        <v>7.7378610635856E-20</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>0.2007726488796282</v>
+        <v>0.07492732656682288</v>
       </c>
       <c r="P25">
         <v>7280</v>
       </c>
       <c r="Q25">
-        <v>2636</v>
+        <v>3040</v>
       </c>
       <c r="R25">
-        <v>36.20879120879121</v>
+        <v>41.75824175824176</v>
       </c>
       <c r="S25">
-        <v>2.002309188138065</v>
+        <v>2.231290919233141</v>
       </c>
       <c r="T25">
-        <v>131648</v>
+        <v>136244</v>
       </c>
       <c r="U25">
-        <v>0.5566582239943847</v>
+        <v>57.60918743155305</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.5374636632834116</v>
+        <v>0.5435310281911763</v>
       </c>
       <c r="C26">
-        <v>0.07410062296988479</v>
+        <v>0.07810696606857925</v>
       </c>
       <c r="D26">
-        <v>7.7378610635856E-20</v>
+        <v>5.229303241290226E-19</v>
       </c>
       <c r="E26">
         <v>-1</v>
       </c>
       <c r="F26">
-        <v>0.0749273265668231</v>
+        <v>0.08706205638235254</v>
       </c>
       <c r="G26">
         <v>229217</v>
       </c>
       <c r="H26">
-        <v>133204</v>
+        <v>149594</v>
       </c>
       <c r="I26">
-        <v>58.11261817404468</v>
+        <v>65.26304767970962</v>
       </c>
       <c r="J26">
-        <v>97.76870908076685</v>
+        <v>97.63665437457168</v>
       </c>
       <c r="K26">
-        <v>0.5374636632834114</v>
+        <v>0.5435310281911764</v>
       </c>
       <c r="L26">
-        <v>0.07410062296988479</v>
+        <v>0.07810696606857925</v>
       </c>
       <c r="M26">
-        <v>7.7378610635856E-20</v>
+        <v>5.229303241290226E-19</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26">
-        <v>0.07492732656682288</v>
+        <v>0.08706205638235276</v>
       </c>
       <c r="P26">
         <v>7280</v>
       </c>
       <c r="Q26">
-        <v>3040</v>
+        <v>3621</v>
       </c>
       <c r="R26">
-        <v>41.75824175824176</v>
+        <v>49.73901098901099</v>
       </c>
       <c r="S26">
-        <v>2.231290919233141</v>
+        <v>2.36334562542832</v>
       </c>
       <c r="T26">
-        <v>136244</v>
+        <v>153215</v>
       </c>
       <c r="U26">
-        <v>0.5760918743155304</v>
+        <v>64.78517697898916</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>0.5435310281911763</v>
+        <v>0.6508469162852482</v>
       </c>
       <c r="C27">
-        <v>0.07810696606857925</v>
+        <v>0.2753452385114225</v>
       </c>
       <c r="D27">
-        <v>5.229303241290226E-19</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>0.08706205638235254</v>
+        <v>0.3016938325704963</v>
       </c>
       <c r="G27">
         <v>229217</v>
       </c>
       <c r="H27">
-        <v>149594</v>
+        <v>19816</v>
       </c>
       <c r="I27">
-        <v>65.26304767970962</v>
+        <v>8.645083043578792</v>
       </c>
       <c r="J27">
-        <v>97.63665437457168</v>
+        <v>98.42547062037451</v>
       </c>
       <c r="K27">
-        <v>0.5435310281911764</v>
+        <v>0.6508469162852482</v>
       </c>
       <c r="L27">
-        <v>0.07810696606857925</v>
+        <v>0.2753452385114225</v>
       </c>
       <c r="M27">
-        <v>5.229303241290226E-19</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>0.08706205638235276</v>
+        <v>0.3016938325704963</v>
       </c>
       <c r="P27">
         <v>7280</v>
       </c>
       <c r="Q27">
-        <v>3621</v>
+        <v>317</v>
       </c>
       <c r="R27">
-        <v>49.73901098901099</v>
+        <v>4.354395604395604</v>
       </c>
       <c r="S27">
-        <v>2.36334562542832</v>
+        <v>1.57452937962549</v>
       </c>
       <c r="T27">
-        <v>153215</v>
+        <v>20133</v>
       </c>
       <c r="U27">
-        <v>0.6478517697898917</v>
+        <v>8.513004393290402</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.6508469162852482</v>
+        <v>0.5900976020994934</v>
       </c>
       <c r="C28">
-        <v>0.2753452385114225</v>
+        <v>0.1675031894293554</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1.630882499199767E-173</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.3016938325704963</v>
+        <v>0.1801952041989867</v>
       </c>
       <c r="G28">
         <v>229217</v>
       </c>
       <c r="H28">
-        <v>19816</v>
+        <v>115346</v>
       </c>
       <c r="I28">
-        <v>8.645083043578792</v>
+        <v>50.32174751436412</v>
       </c>
       <c r="J28">
-        <v>98.42547062037451</v>
+        <v>97.92512097801172</v>
       </c>
       <c r="K28">
-        <v>0.6508469162852482</v>
+        <v>0.5900976020994932</v>
       </c>
       <c r="L28">
-        <v>0.2753452385114225</v>
+        <v>0.1675031894293554</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1.630882499199767E-173</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>0.3016938325704963</v>
+        <v>0.1801952041989865</v>
       </c>
       <c r="P28">
         <v>7280</v>
       </c>
       <c r="Q28">
-        <v>317</v>
+        <v>2444</v>
       </c>
       <c r="R28">
-        <v>4.354395604395604</v>
+        <v>33.57142857142857</v>
       </c>
       <c r="S28">
-        <v>1.57452937962549</v>
+        <v>2.074879021988284</v>
       </c>
       <c r="T28">
-        <v>20133</v>
+        <v>117790</v>
       </c>
       <c r="U28">
-        <v>0.08513004393290401</v>
+        <v>49.80612861896768</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.5900976020994934</v>
+        <v>0.5418109474648694</v>
       </c>
       <c r="C29">
-        <v>0.1675031894293554</v>
+        <v>0.08362189492973859</v>
       </c>
       <c r="D29">
-        <v>1.630882499199767E-173</v>
+        <v>2.265437934308589E-43</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0.1801952041989867</v>
+        <v>0.0836218949297387</v>
       </c>
       <c r="G29">
         <v>229217</v>
       </c>
       <c r="H29">
-        <v>115346</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>50.32174751436412</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>97.92512097801172</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0.5900976020994932</v>
+        <v>0.5418109474648694</v>
       </c>
       <c r="L29">
-        <v>0.1675031894293554</v>
+        <v>0.08362189492973859</v>
       </c>
       <c r="M29">
-        <v>1.630882499199767E-173</v>
+        <v>2.265437934308589E-43</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>0.1801952041989865</v>
+        <v>0.0836218949297387</v>
       </c>
       <c r="P29">
         <v>7280</v>
       </c>
       <c r="Q29">
-        <v>2444</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>33.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>2.074879021988284</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>117790</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>0.4980612861896768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.5418109474648694</v>
+        <v>0.6150217658088476</v>
       </c>
       <c r="C30">
-        <v>0.08362189492973859</v>
+        <v>0.2096537510139032</v>
       </c>
       <c r="D30">
-        <v>2.265437934308589E-43</v>
+        <v>1.463158675190853E-272</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0.0836218949297387</v>
+        <v>0.2300435316176952</v>
       </c>
       <c r="G30">
         <v>229217</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>87904</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>38.34968610530633</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>98.52499439587537</v>
       </c>
       <c r="K30">
-        <v>0.5418109474648694</v>
+        <v>0.6150217658088475</v>
       </c>
       <c r="L30">
-        <v>0.08362189492973859</v>
+        <v>0.2096537510139033</v>
       </c>
       <c r="M30">
-        <v>2.265437934308589E-43</v>
+        <v>1.463158675190118E-272</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
-        <v>0.0836218949297387</v>
+        <v>0.230043531617695</v>
       </c>
       <c r="P30">
         <v>7280</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1316</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>18.07692307692308</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.475005604124636</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>89220</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>37.72563711167584</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.6150217658088476</v>
+        <v>0.6894775912234804</v>
       </c>
       <c r="C31">
-        <v>0.2096537510139032</v>
+        <v>0.3037091837299719</v>
       </c>
       <c r="D31">
-        <v>1.463158675190853E-272</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.2300435316176952</v>
+        <v>0.3789551824469608</v>
       </c>
       <c r="G31">
         <v>229217</v>
       </c>
       <c r="H31">
-        <v>87904</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>38.34968610530633</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>98.52499439587537</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>0.6150217658088475</v>
+        <v>0.6894775912234805</v>
       </c>
       <c r="L31">
-        <v>0.2096537510139033</v>
+        <v>0.3037091837299719</v>
       </c>
       <c r="M31">
-        <v>1.463158675190118E-272</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
       <c r="O31">
-        <v>0.230043531617695</v>
+        <v>0.378955182446961</v>
       </c>
       <c r="P31">
         <v>7280</v>
       </c>
       <c r="Q31">
-        <v>1316</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>18.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>1.475005604124636</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>89220</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0.3772563711167584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.6894775912234804</v>
+        <v>0.5710800306940914</v>
       </c>
       <c r="C32">
-        <v>0.3037091837299719</v>
+        <v>0.1194184071907508</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4.651056263483144E-17</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.3789551824469608</v>
+        <v>0.1421600613881828</v>
       </c>
       <c r="G32">
         <v>229217</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>189039</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>82.47163168525894</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>96.97440711614522</v>
       </c>
       <c r="K32">
-        <v>0.6894775912234805</v>
+        <v>0.5710800306940915</v>
       </c>
       <c r="L32">
-        <v>0.3037091837299719</v>
+        <v>0.1194184071907508</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>4.651056263483144E-17</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O32">
-        <v>0.378955182446961</v>
+        <v>0.142160061388183</v>
       </c>
       <c r="P32">
         <v>7280</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>5898</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>81.01648351648352</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>3.025592883854784</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>194937</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>82.42683839541304</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.5710800306940914</v>
+        <v>0.6345919788647936</v>
       </c>
       <c r="C33">
-        <v>0.1194184071907508</v>
+        <v>0.2825809965896173</v>
       </c>
       <c r="D33">
-        <v>4.651056263483144E-17</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F33">
-        <v>0.1421600613881828</v>
+        <v>0.2691839577295871</v>
       </c>
       <c r="G33">
         <v>229217</v>
       </c>
       <c r="H33">
-        <v>189039</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>82.47163168525894</v>
+        <v>0.0004362678160869395</v>
       </c>
       <c r="J33">
-        <v>96.97440711614522</v>
+        <v>100</v>
       </c>
       <c r="K33">
-        <v>0.5710800306940915</v>
+        <v>0.6345919788647935</v>
       </c>
       <c r="L33">
-        <v>0.1194184071907508</v>
+        <v>0.2825809965896173</v>
       </c>
       <c r="M33">
-        <v>4.651056263483144E-17</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.142160061388183</v>
+        <v>0.2691839577295869</v>
       </c>
       <c r="P33">
         <v>7280</v>
       </c>
       <c r="Q33">
-        <v>5898</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>81.01648351648352</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>3.025592883854784</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>194937</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>0.8242683839541305</v>
+        <v>0.0004228383446724483</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.6345919788647936</v>
+        <v>0.5380004846269587</v>
       </c>
       <c r="C34">
-        <v>0.2825809965896173</v>
+        <v>0.08331099117325919</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3.615363781205931E-41</v>
       </c>
       <c r="E34">
         <v>-1</v>
       </c>
       <c r="F34">
-        <v>0.2691839577295871</v>
+        <v>0.07600096925391742</v>
       </c>
       <c r="G34">
         <v>229217</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>12010</v>
       </c>
       <c r="I34">
-        <v>0.0004362678160869395</v>
+        <v>5.239576471204143</v>
       </c>
       <c r="J34">
-        <v>100</v>
+        <v>97.40470397404704</v>
       </c>
       <c r="K34">
-        <v>0.6345919788647935</v>
+        <v>0.5380004846269586</v>
       </c>
       <c r="L34">
-        <v>0.2825809965896173</v>
+        <v>0.08331099117325919</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>3.615363781205931E-41</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="O34">
-        <v>0.2691839577295869</v>
+        <v>0.07600096925391719</v>
       </c>
       <c r="P34">
         <v>7280</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>4.395604395604396</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>2.59529602595296</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>12330</v>
       </c>
       <c r="U34">
-        <v>4.228383446724483E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35">
-        <v>0.5380004846269587</v>
-      </c>
-      <c r="C35">
-        <v>0.08331099117325919</v>
-      </c>
-      <c r="D35">
-        <v>3.615363781205931E-41</v>
-      </c>
-      <c r="E35">
-        <v>-1</v>
-      </c>
-      <c r="F35">
-        <v>0.07600096925391742</v>
-      </c>
-      <c r="G35">
-        <v>229217</v>
-      </c>
-      <c r="H35">
-        <v>12010</v>
-      </c>
-      <c r="I35">
-        <v>5.239576471204143</v>
-      </c>
-      <c r="J35">
-        <v>97.40470397404704</v>
-      </c>
-      <c r="K35">
-        <v>0.5380004846269586</v>
-      </c>
-      <c r="L35">
-        <v>0.08331099117325919</v>
-      </c>
-      <c r="M35">
-        <v>3.615363781205931E-41</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0.07600096925391719</v>
-      </c>
-      <c r="P35">
-        <v>7280</v>
-      </c>
-      <c r="Q35">
-        <v>320</v>
-      </c>
-      <c r="R35">
-        <v>4.395604395604396</v>
-      </c>
-      <c r="S35">
-        <v>2.59529602595296</v>
-      </c>
-      <c r="T35">
-        <v>12330</v>
-      </c>
-      <c r="U35">
-        <v>0.05213596789811287</v>
+        <v>5.213596789811287</v>
       </c>
     </row>
   </sheetData>
